--- a/temp/kala_group.xlsx
+++ b/temp/kala_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340F6E41-4D34-445F-A226-F3296E43F14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB33AF0-F438-4DF1-89C1-9C1CA149A0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{544B50DF-B8DD-4C54-950A-6FD50F8944CF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="82">
   <si>
     <t>code</t>
   </si>
@@ -93,9 +93,6 @@
     <t>مانيسا مسواک سفيد نانو</t>
   </si>
   <si>
-    <t>کولرگازي</t>
-  </si>
-  <si>
     <t>يخچال فريزر</t>
   </si>
   <si>
@@ -172,6 +169,108 @@
   </si>
   <si>
     <t>ظرفشویی</t>
+  </si>
+  <si>
+    <t>کولرآبي</t>
+  </si>
+  <si>
+    <t>کولر</t>
+  </si>
+  <si>
+    <t>کولر آبي</t>
+  </si>
+  <si>
+    <t>آبگرمکن</t>
+  </si>
+  <si>
+    <t>کولر گازي</t>
+  </si>
+  <si>
+    <t>جاروبرقي</t>
+  </si>
+  <si>
+    <t>جارو برقی</t>
+  </si>
+  <si>
+    <t>ميز تي وي</t>
+  </si>
+  <si>
+    <t>ميز ال سي دي</t>
+  </si>
+  <si>
+    <t>ميز اتو</t>
+  </si>
+  <si>
+    <t>همزن</t>
+  </si>
+  <si>
+    <t>گوشت کوب</t>
+  </si>
+  <si>
+    <t>ساندويچ ساز</t>
+  </si>
+  <si>
+    <t>مبل 10نفره</t>
+  </si>
+  <si>
+    <t>ماگ</t>
+  </si>
+  <si>
+    <t>دراور</t>
+  </si>
+  <si>
+    <t>شمع وارمر</t>
+  </si>
+  <si>
+    <t>ني پيچي</t>
+  </si>
+  <si>
+    <t>برس</t>
+  </si>
+  <si>
+    <t>نی</t>
+  </si>
+  <si>
+    <t>شمع</t>
+  </si>
+  <si>
+    <t>لیوان و ماگ</t>
+  </si>
+  <si>
+    <t>ساندویچ ساز</t>
+  </si>
+  <si>
+    <t>گوشت کوب برقی</t>
+  </si>
+  <si>
+    <t>میز اتو</t>
+  </si>
+  <si>
+    <t>میز تلوزیون</t>
+  </si>
+  <si>
+    <t>آبگرم کن</t>
+  </si>
+  <si>
+    <t>اسپيکر</t>
+  </si>
+  <si>
+    <t>چرخ گوشت</t>
+  </si>
+  <si>
+    <t>چرخ خياطي</t>
+  </si>
+  <si>
+    <t>سشوار</t>
+  </si>
+  <si>
+    <t>اسپیکر</t>
+  </si>
+  <si>
+    <t>چرخ خیاطی</t>
+  </si>
+  <si>
+    <t>آرایشی</t>
   </si>
 </sst>
 </file>
@@ -576,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9677378D-8B95-4F94-ABBC-1D90F9A4731E}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -587,7 +686,7 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
@@ -624,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -641,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
@@ -658,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
@@ -675,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
@@ -692,7 +791,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>12</v>
@@ -709,10 +808,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -726,7 +825,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
@@ -743,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -760,7 +859,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
@@ -774,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -794,7 +893,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>17</v>
@@ -805,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -822,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>19</v>
@@ -842,10 +941,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>20</v>
@@ -859,10 +958,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>21</v>
@@ -876,13 +975,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,13 +992,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -910,13 +1009,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,13 +1026,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -947,10 +1046,10 @@
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -964,10 +1063,10 @@
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -981,10 +1080,10 @@
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,13 +1094,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1012,13 +1111,390 @@
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>31</v>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/temp/kala_group.xlsx
+++ b/temp/kala_group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28305"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB33AF0-F438-4DF1-89C1-9C1CA149A0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CEF3DE-9395-4727-B8AB-F4ED632234D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{544B50DF-B8DD-4C54-950A-6FD50F8944CF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="85">
   <si>
     <t>code</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>آرایشی</t>
+  </si>
+  <si>
+    <t>تعیین نشده 1</t>
+  </si>
+  <si>
+    <t>تعیین نشده 2</t>
+  </si>
+  <si>
+    <t>تعیین نشده 3</t>
   </si>
 </sst>
 </file>
@@ -675,16 +684,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9677378D-8B95-4F94-ABBC-1D90F9A4731E}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -717,16 +726,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -740,10 +746,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -757,10 +763,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,10 +780,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,10 +797,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -808,10 +814,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -825,10 +831,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -842,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -859,10 +865,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -873,13 +879,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,13 +896,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,16 +910,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -930,7 +936,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -938,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -958,13 +964,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -975,13 +981,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -992,13 +998,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>23</v>
+        <v>49</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1009,13 +1015,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1031,8 +1037,8 @@
       <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>25</v>
+      <c r="E20" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1043,13 +1049,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1063,10 +1069,10 @@
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,10 +1086,10 @@
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1094,13 +1100,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1117,7 +1123,7 @@
         <v>46</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,10 +1137,10 @@
         <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1151,7 +1157,7 @@
         <v>49</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1165,10 +1171,10 @@
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1182,10 +1188,10 @@
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1199,10 +1205,10 @@
         <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1219,7 +1225,7 @@
         <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1233,10 +1239,10 @@
         <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,13 +1253,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1267,10 +1273,10 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,10 +1290,10 @@
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1298,13 +1304,13 @@
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1315,13 +1321,13 @@
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1332,13 +1338,13 @@
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1349,13 +1355,13 @@
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1369,10 +1375,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1383,16 +1389,13 @@
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1406,9 +1409,12 @@
         <v>42</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1420,13 +1426,13 @@
         <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1440,10 +1446,10 @@
         <v>36</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1454,13 +1460,13 @@
         <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1474,10 +1480,10 @@
         <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1488,12 +1494,29 @@
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>78</v>
       </c>
     </row>

--- a/temp/kala_group.xlsx
+++ b/temp/kala_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CEF3DE-9395-4727-B8AB-F4ED632234D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF12D044-2EE3-49AA-8FA0-D9275C63EE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{544B50DF-B8DD-4C54-950A-6FD50F8944CF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="102">
   <si>
     <t>code</t>
   </si>
@@ -280,6 +280,57 @@
   </si>
   <si>
     <t>تعیین نشده 3</t>
+  </si>
+  <si>
+    <t>کولرگازي</t>
+  </si>
+  <si>
+    <t>يخچال</t>
+  </si>
+  <si>
+    <t>جارو برقي</t>
+  </si>
+  <si>
+    <t>جارو دستي</t>
+  </si>
+  <si>
+    <t>جاروسطلي</t>
+  </si>
+  <si>
+    <t>جارو نپتون</t>
+  </si>
+  <si>
+    <t>اتو بخار</t>
+  </si>
+  <si>
+    <t>اتوبخار </t>
+  </si>
+  <si>
+    <t>ملامين</t>
+  </si>
+  <si>
+    <t>ملاقه</t>
+  </si>
+  <si>
+    <t>جارو دستی</t>
+  </si>
+  <si>
+    <t>جارو سطلی</t>
+  </si>
+  <si>
+    <t>ملامین</t>
+  </si>
+  <si>
+    <t>بخاري</t>
+  </si>
+  <si>
+    <t>استکان</t>
+  </si>
+  <si>
+    <t>قندان</t>
+  </si>
+  <si>
+    <t>بخاری</t>
   </si>
 </sst>
 </file>
@@ -327,7 +378,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,14 +418,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9677378D-8B95-4F94-ABBC-1D90F9A4731E}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A51" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -696,7 +761,7 @@
     <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -714,7 +779,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -748,7 +813,7 @@
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -765,7 +830,7 @@
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -782,7 +847,7 @@
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -799,7 +864,7 @@
       <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -816,7 +881,7 @@
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -833,7 +898,7 @@
       <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -850,7 +915,7 @@
       <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -867,7 +932,7 @@
       <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -884,7 +949,7 @@
       <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -901,7 +966,7 @@
       <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -918,7 +983,7 @@
       <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -935,7 +1000,7 @@
       <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -952,7 +1017,7 @@
       <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -969,7 +1034,7 @@
       <c r="D16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -986,7 +1051,7 @@
       <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1003,7 +1068,7 @@
       <c r="D18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1020,7 +1085,7 @@
       <c r="D19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1037,7 +1102,7 @@
       <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1054,7 +1119,7 @@
       <c r="D21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1071,7 +1136,7 @@
       <c r="D22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1088,7 +1153,7 @@
       <c r="D23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1105,7 +1170,7 @@
       <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1122,7 +1187,7 @@
       <c r="D25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1139,7 +1204,7 @@
       <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1156,7 +1221,7 @@
       <c r="D27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1173,7 +1238,7 @@
       <c r="D28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1190,7 +1255,7 @@
       <c r="D29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1207,7 +1272,7 @@
       <c r="D30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1224,7 +1289,7 @@
       <c r="D31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1241,7 +1306,7 @@
       <c r="D32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1258,7 +1323,7 @@
       <c r="D33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1275,7 +1340,7 @@
       <c r="D34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1292,7 +1357,7 @@
       <c r="D35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1309,7 +1374,7 @@
       <c r="D36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1326,7 +1391,7 @@
       <c r="D37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1343,7 +1408,7 @@
       <c r="D38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1360,7 +1425,7 @@
       <c r="D39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1377,7 +1442,7 @@
       <c r="D40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1394,7 +1459,7 @@
       <c r="D41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1411,7 +1476,7 @@
       <c r="D42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -1431,7 +1496,7 @@
       <c r="D43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1448,7 +1513,7 @@
       <c r="D44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1465,7 +1530,7 @@
       <c r="D45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="4" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1482,7 +1547,7 @@
       <c r="D46" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1499,7 +1564,7 @@
       <c r="D47" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1516,8 +1581,229 @@
       <c r="D48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="4" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/temp/kala_group.xlsx
+++ b/temp/kala_group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF12D044-2EE3-49AA-8FA0-D9275C63EE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123EB715-FF21-43C1-A2BF-68A6FFE55E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{544B50DF-B8DD-4C54-950A-6FD50F8944CF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="109">
   <si>
     <t>code</t>
   </si>
@@ -331,6 +331,27 @@
   </si>
   <si>
     <t>بخاری</t>
+  </si>
+  <si>
+    <t>میز</t>
+  </si>
+  <si>
+    <t>ميز</t>
+  </si>
+  <si>
+    <t>محافظ ال اي دي</t>
+  </si>
+  <si>
+    <t>محافظ پايه</t>
+  </si>
+  <si>
+    <t>محافظ ال ای دی</t>
+  </si>
+  <si>
+    <t>محافظ پایه</t>
+  </si>
+  <si>
+    <t>محافظ تشک</t>
   </si>
 </sst>
 </file>
@@ -749,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9677378D-8B95-4F94-ABBC-1D90F9A4731E}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A51" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:A61"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A57" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -1806,6 +1827,74 @@
         <v>100</v>
       </c>
     </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/temp/kala_group.xlsx
+++ b/temp/kala_group.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28422"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123EB715-FF21-43C1-A2BF-68A6FFE55E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C077D-E248-4687-A8CB-C80D622C6D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{544B50DF-B8DD-4C54-950A-6FD50F8944CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="153">
   <si>
     <t>code</t>
   </si>
@@ -45,12 +46,6 @@
     <t>not_contain</t>
   </si>
   <si>
-    <t>لوازم خانگی</t>
-  </si>
-  <si>
-    <t>آشپزخانه</t>
-  </si>
-  <si>
     <t>قابلمه</t>
   </si>
   <si>
@@ -120,57 +115,21 @@
     <t>مبل راحتي 8 نفره</t>
   </si>
   <si>
-    <t>پخت و پز</t>
-  </si>
-  <si>
-    <t>پذیرایی</t>
-  </si>
-  <si>
-    <t>گاز</t>
-  </si>
-  <si>
     <t>یخچال فریزر</t>
   </si>
   <si>
-    <t>لباسشویی</t>
-  </si>
-  <si>
-    <t>منزل</t>
-  </si>
-  <si>
-    <t>متفرقه</t>
-  </si>
-  <si>
     <t>نامعلوم</t>
   </si>
   <si>
-    <t>نامعلوم2</t>
-  </si>
-  <si>
-    <t>نامعلوم3</t>
-  </si>
-  <si>
-    <t>تزئینات</t>
-  </si>
-  <si>
-    <t>بهداشتی</t>
-  </si>
-  <si>
     <t>مسواک</t>
   </si>
   <si>
-    <t>صوتی تصویری</t>
-  </si>
-  <si>
     <t>ال ای دی</t>
   </si>
   <si>
     <t>مبل</t>
   </si>
   <si>
-    <t>ظرفشویی</t>
-  </si>
-  <si>
     <t>کولرآبي</t>
   </si>
   <si>
@@ -234,9 +193,6 @@
     <t>شمع</t>
   </si>
   <si>
-    <t>لیوان و ماگ</t>
-  </si>
-  <si>
     <t>ساندویچ ساز</t>
   </si>
   <si>
@@ -246,9 +202,6 @@
     <t>میز اتو</t>
   </si>
   <si>
-    <t>میز تلوزیون</t>
-  </si>
-  <si>
     <t>آبگرم کن</t>
   </si>
   <si>
@@ -270,24 +223,9 @@
     <t>چرخ خیاطی</t>
   </si>
   <si>
-    <t>آرایشی</t>
-  </si>
-  <si>
-    <t>تعیین نشده 1</t>
-  </si>
-  <si>
-    <t>تعیین نشده 2</t>
-  </si>
-  <si>
-    <t>تعیین نشده 3</t>
-  </si>
-  <si>
     <t>کولرگازي</t>
   </si>
   <si>
-    <t>يخچال</t>
-  </si>
-  <si>
     <t>جارو برقي</t>
   </si>
   <si>
@@ -345,13 +283,208 @@
     <t>محافظ پايه</t>
   </si>
   <si>
-    <t>محافظ ال ای دی</t>
-  </si>
-  <si>
-    <t>محافظ پایه</t>
-  </si>
-  <si>
     <t>محافظ تشک</t>
+  </si>
+  <si>
+    <t>لوازم برقی بزرگ</t>
+  </si>
+  <si>
+    <t>صوتی و تصویری</t>
+  </si>
+  <si>
+    <t>ماشین لباسشویی</t>
+  </si>
+  <si>
+    <t>ماشین ظرف شویی</t>
+  </si>
+  <si>
+    <t>اجاق گاز</t>
+  </si>
+  <si>
+    <t>اجاق برقی</t>
+  </si>
+  <si>
+    <t>هود</t>
+  </si>
+  <si>
+    <t>فر</t>
+  </si>
+  <si>
+    <t>لوازم برقی کوچک</t>
+  </si>
+  <si>
+    <t>غذا ساز</t>
+  </si>
+  <si>
+    <t>آسیاب مخلوط کن</t>
+  </si>
+  <si>
+    <t>پلوپز</t>
+  </si>
+  <si>
+    <t>غذا ساز همه کاره</t>
+  </si>
+  <si>
+    <t>سرخ کن</t>
+  </si>
+  <si>
+    <t>خرد کن</t>
+  </si>
+  <si>
+    <t>نوشیدنی ساز</t>
+  </si>
+  <si>
+    <t>اسپرسو ساز</t>
+  </si>
+  <si>
+    <t>آبمیوه گیری</t>
+  </si>
+  <si>
+    <t>چای ساز</t>
+  </si>
+  <si>
+    <t>سماور گازی</t>
+  </si>
+  <si>
+    <t>سماور برقی</t>
+  </si>
+  <si>
+    <t>کتری برقی</t>
+  </si>
+  <si>
+    <t>اتو</t>
+  </si>
+  <si>
+    <t>بخار شوی</t>
+  </si>
+  <si>
+    <t>لوازم شخصی برقی</t>
+  </si>
+  <si>
+    <t>تصفیه هوا</t>
+  </si>
+  <si>
+    <t>تصفیه آب</t>
+  </si>
+  <si>
+    <t>لوازم آشپزخانه</t>
+  </si>
+  <si>
+    <t>ظروف سرو و پذیرایی</t>
+  </si>
+  <si>
+    <t>پارچ و لیوان</t>
+  </si>
+  <si>
+    <t>دیس و بشقاب</t>
+  </si>
+  <si>
+    <t>سرویس پذیرایی</t>
+  </si>
+  <si>
+    <t>سرویس غذاخوری</t>
+  </si>
+  <si>
+    <t>قاشق و چنگال و کارد</t>
+  </si>
+  <si>
+    <t>کتری قوری</t>
+  </si>
+  <si>
+    <t>کلمن و فلاسک</t>
+  </si>
+  <si>
+    <t>وسایل کاربردی آشپزخانه</t>
+  </si>
+  <si>
+    <t>آبکش و لگن و سبد</t>
+  </si>
+  <si>
+    <t>ظروف نگهدارنده</t>
+  </si>
+  <si>
+    <t>ظروف پخت و پز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زودپز </t>
+  </si>
+  <si>
+    <t>سرویس قابلمه</t>
+  </si>
+  <si>
+    <t>سایر لوازم آشپزخانه</t>
+  </si>
+  <si>
+    <t>منسوجات آشپزخانه</t>
+  </si>
+  <si>
+    <t>سرمایش و گرمایش</t>
+  </si>
+  <si>
+    <t>بخاری برقی</t>
+  </si>
+  <si>
+    <t>بخاری گازی</t>
+  </si>
+  <si>
+    <t>پــنــکه</t>
+  </si>
+  <si>
+    <t>کولر آبی</t>
+  </si>
+  <si>
+    <t>کولر گازی</t>
+  </si>
+  <si>
+    <t>آب گرمکن</t>
+  </si>
+  <si>
+    <t>لوازم حمام و دستشویی</t>
+  </si>
+  <si>
+    <t>لوازم شستشو و نظافت</t>
+  </si>
+  <si>
+    <t>لوازم مسافرتی و گردشگری</t>
+  </si>
+  <si>
+    <t>دکوریجات</t>
+  </si>
+  <si>
+    <t>تعیین نشده</t>
+  </si>
+  <si>
+    <t>مبل و راحتی</t>
+  </si>
+  <si>
+    <t>فرش و مبل</t>
+  </si>
+  <si>
+    <t>ساید</t>
+  </si>
+  <si>
+    <t>راحتی</t>
+  </si>
+  <si>
+    <t>مبلمان و دکوراسیون</t>
+  </si>
+  <si>
+    <t>میز تلویزیون</t>
+  </si>
+  <si>
+    <t>کمد</t>
+  </si>
+  <si>
+    <t>شخصی</t>
+  </si>
+  <si>
+    <t>جارو</t>
+  </si>
+  <si>
+    <t>کالای خواب</t>
+  </si>
+  <si>
+    <t>شستشو و نظافت</t>
   </si>
 </sst>
 </file>
@@ -408,13 +541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,22 +572,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,21 +904,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9677378D-8B95-4F94-ABBC-1D90F9A4731E}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A57" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -800,10 +934,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -812,13 +946,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -826,16 +960,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -843,271 +977,271 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
+      <c r="B8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
+      <c r="B10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
+      <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>16</v>
+      <c r="B12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
+      <c r="B13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>18</v>
+      <c r="B14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
+      <c r="B15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>20</v>
+      <c r="B16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>21</v>
+      <c r="B17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
+      <c r="B18" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>44</v>
+      <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1115,16 +1249,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>24</v>
+        <v>145</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1132,67 +1266,67 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>26</v>
+      <c r="B22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>27</v>
+      <c r="B23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
+      <c r="B24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>28</v>
+        <v>144</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1200,16 +1334,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1217,84 +1351,84 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>30</v>
+        <v>145</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
+      <c r="B27" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
+      <c r="B28" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
+      <c r="B29" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>53</v>
+      <c r="B30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1302,16 +1436,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>55</v>
+        <v>81</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1319,584 +1453,894 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
+      <c r="B34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>7</v>
+      <c r="B41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
+      <c r="B43" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
+      <c r="B44" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
+      <c r="B45" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>6</v>
+      <c r="B46" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
+      <c r="B47" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>78</v>
+      <c r="B48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>36</v>
+      <c r="B49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>85</v>
+        <v>62</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>6</v>
+      <c r="B50" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>86</v>
+        <v>35</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>87</v>
+      <c r="B51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
+      <c r="B52" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
+      <c r="B53" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
+      <c r="B54" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>90</v>
+        <v>69</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>36</v>
+      <c r="B55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>91</v>
+        <v>70</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>36</v>
+      <c r="B56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>7</v>
+      <c r="B57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>7</v>
+      <c r="B58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>94</v>
+        <v>73</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
+      <c r="B59" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>98</v>
+        <v>80</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>99</v>
+      <c r="B60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>100</v>
+      <c r="B61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>103</v>
+      <c r="B62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>104</v>
+      <c r="B63" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="B64" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524904DE-4263-4D4A-95F7-64DBC9CB7895}">
+  <dimension ref="A2:C66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/temp/kala_group.xlsx
+++ b/temp/kala_group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28422"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C077D-E248-4687-A8CB-C80D622C6D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F55B21-091A-42CB-A171-389E2CC3605A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{544B50DF-B8DD-4C54-950A-6FD50F8944CF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="157">
   <si>
     <t>code</t>
   </si>
@@ -118,9 +118,6 @@
     <t>یخچال فریزر</t>
   </si>
   <si>
-    <t>نامعلوم</t>
-  </si>
-  <si>
     <t>مسواک</t>
   </si>
   <si>
@@ -451,9 +448,6 @@
     <t>دکوریجات</t>
   </si>
   <si>
-    <t>تعیین نشده</t>
-  </si>
-  <si>
     <t>مبل و راحتی</t>
   </si>
   <si>
@@ -485,6 +479,24 @@
   </si>
   <si>
     <t>شستشو و نظافت</t>
+  </si>
+  <si>
+    <t>تعیین نشده1</t>
+  </si>
+  <si>
+    <t>تعیین نشده2</t>
+  </si>
+  <si>
+    <t>تعیین نشده3</t>
+  </si>
+  <si>
+    <t>نامعلوم1</t>
+  </si>
+  <si>
+    <t>نامعلوم2</t>
+  </si>
+  <si>
+    <t>نامعلوم3</t>
   </si>
 </sst>
 </file>
@@ -906,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9677378D-8B95-4F94-ABBC-1D90F9A4731E}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -946,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -960,13 +972,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -977,13 +989,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
@@ -994,13 +1006,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -1011,13 +1023,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
@@ -1028,10 +1040,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -1045,13 +1057,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>9</v>
@@ -1062,13 +1074,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
@@ -1079,7 +1091,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -1096,13 +1108,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>11</v>
@@ -1113,13 +1125,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>12</v>
@@ -1130,13 +1142,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>13</v>
@@ -1147,13 +1159,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>14</v>
@@ -1164,13 +1176,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>15</v>
@@ -1181,13 +1193,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
@@ -1198,13 +1210,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>19</v>
@@ -1215,16 +1227,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,13 +1244,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>21</v>
@@ -1249,13 +1261,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>22</v>
@@ -1266,13 +1278,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>23</v>
@@ -1283,13 +1295,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>24</v>
@@ -1300,13 +1312,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>25</v>
@@ -1317,13 +1329,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>26</v>
@@ -1334,13 +1346,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>27</v>
@@ -1351,13 +1363,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>28</v>
@@ -1368,16 +1380,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1385,16 +1397,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1402,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1419,16 +1431,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1436,16 +1448,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1453,16 +1465,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1470,16 +1482,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1487,16 +1499,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1504,16 +1516,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1521,16 +1533,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1538,16 +1550,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1555,16 +1567,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1572,16 +1584,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1589,16 +1601,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,16 +1618,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1623,16 +1635,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1640,16 +1652,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1657,16 +1669,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1674,16 +1686,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1691,16 +1703,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1708,16 +1720,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,16 +1737,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1742,16 +1754,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1759,16 +1771,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1776,16 +1788,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1793,16 +1805,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1810,16 +1822,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1827,16 +1839,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1844,16 +1856,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1861,16 +1873,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1878,16 +1890,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D57" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1895,16 +1907,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1912,16 +1924,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1929,16 +1941,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1946,16 +1958,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1963,16 +1975,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1980,16 +1992,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1997,16 +2009,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">
@@ -2036,7 +2048,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
@@ -2044,300 +2056,300 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/temp/kala_group.xlsx
+++ b/temp/kala_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F55B21-091A-42CB-A171-389E2CC3605A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DB9906-DF66-457A-823C-148EBC3A4769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{544B50DF-B8DD-4C54-950A-6FD50F8944CF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="176">
   <si>
     <t>code</t>
   </si>
@@ -497,6 +497,63 @@
   </si>
   <si>
     <t>نامعلوم3</t>
+  </si>
+  <si>
+    <t>دکوریجات1</t>
+  </si>
+  <si>
+    <t>دکوریجات2</t>
+  </si>
+  <si>
+    <t>دکوریجات3</t>
+  </si>
+  <si>
+    <t>کالای خواب.</t>
+  </si>
+  <si>
+    <t>کالای خواب..</t>
+  </si>
+  <si>
+    <t>دکوریجات.</t>
+  </si>
+  <si>
+    <t>دکوریجات..</t>
+  </si>
+  <si>
+    <t>دکوریجات…</t>
+  </si>
+  <si>
+    <t>بخاری..</t>
+  </si>
+  <si>
+    <t>جارو برقی..</t>
+  </si>
+  <si>
+    <t>چرخ خیاطی..</t>
+  </si>
+  <si>
+    <t>آبگرمکن..</t>
+  </si>
+  <si>
+    <t>ماشین ظرف شویی..</t>
+  </si>
+  <si>
+    <t>لوازم حمام و دستشویی.</t>
+  </si>
+  <si>
+    <t>لوازم حمام و دستشویی..</t>
+  </si>
+  <si>
+    <t>لوازم حمام و دستشویی…</t>
+  </si>
+  <si>
+    <t>سایر لوازم آشپزخانه..</t>
+  </si>
+  <si>
+    <t>ماشین لباسشویی..</t>
+  </si>
+  <si>
+    <t>یخچال فریزر..</t>
   </si>
 </sst>
 </file>
@@ -916,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9677378D-8B95-4F94-ABBC-1D90F9A4731E}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -930,7 +987,7 @@
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1094,7 +1151,7 @@
         <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -1111,7 +1168,7 @@
         <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>87</v>
@@ -1159,13 +1216,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>14</v>
@@ -1179,7 +1236,7 @@
         <v>112</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>127</v>
@@ -1193,13 +1250,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
@@ -1210,13 +1267,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>19</v>
@@ -1298,7 +1355,7 @@
         <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>88</v>
@@ -1417,7 +1474,7 @@
         <v>129</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>36</v>
@@ -1434,7 +1491,7 @@
         <v>93</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>39</v>
@@ -1621,7 +1678,7 @@
         <v>139</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>53</v>
@@ -1689,7 +1746,7 @@
         <v>129</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>36</v>
@@ -1740,7 +1797,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>63</v>
@@ -1791,7 +1848,7 @@
         <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>39</v>
@@ -1927,7 +1984,7 @@
         <v>129</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>79</v>
@@ -1975,13 +2032,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>82</v>
@@ -1992,13 +2049,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>83</v>
@@ -2012,10 +2069,10 @@
         <v>149</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>84</v>

--- a/temp/kala_group.xlsx
+++ b/temp/kala_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DB9906-DF66-457A-823C-148EBC3A4769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECD2958-BBF2-4431-B724-BAC639916F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{544B50DF-B8DD-4C54-950A-6FD50F8944CF}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$65</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="172">
   <si>
     <t>code</t>
   </si>
@@ -499,15 +502,6 @@
     <t>نامعلوم3</t>
   </si>
   <si>
-    <t>دکوریجات1</t>
-  </si>
-  <si>
-    <t>دکوریجات2</t>
-  </si>
-  <si>
-    <t>دکوریجات3</t>
-  </si>
-  <si>
     <t>کالای خواب.</t>
   </si>
   <si>
@@ -548,9 +542,6 @@
   </si>
   <si>
     <t>سایر لوازم آشپزخانه..</t>
-  </si>
-  <si>
-    <t>ماشین لباسشویی..</t>
   </si>
   <si>
     <t>یخچال فریزر..</t>
@@ -976,7 +967,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="D57" sqref="D57:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1142,7 @@
         <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -1168,7 +1159,7 @@
         <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>87</v>
@@ -1216,13 +1207,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>14</v>
@@ -1236,7 +1227,7 @@
         <v>112</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>127</v>
@@ -1250,13 +1241,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
@@ -1267,13 +1258,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>19</v>
@@ -1355,7 +1346,7 @@
         <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>88</v>
@@ -1389,7 +1380,7 @@
         <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>142</v>
@@ -1474,7 +1465,7 @@
         <v>129</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>36</v>
@@ -1491,7 +1482,7 @@
         <v>93</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>39</v>
@@ -1527,7 +1518,7 @@
       <c r="C32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -1544,7 +1535,7 @@
       <c r="C33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -1675,10 +1666,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>53</v>
@@ -1746,7 +1737,7 @@
         <v>129</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>36</v>
@@ -1762,7 +1753,7 @@
       <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -1779,7 +1770,7 @@
       <c r="B47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -1797,7 +1788,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>63</v>
@@ -1848,7 +1839,7 @@
         <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>39</v>
@@ -1984,7 +1975,7 @@
         <v>129</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>79</v>
@@ -2032,13 +2023,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>82</v>
@@ -2049,13 +2040,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>83</v>
@@ -2069,10 +2060,10 @@
         <v>149</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>84</v>
@@ -2082,6 +2073,11 @@
       <c r="E65" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F65" xr:uid="{9677378D-8B95-4F94-ABBC-1D90F9A4731E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F65">
+      <sortCondition ref="A1:A65"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
